--- a/rapportAfsnit/eProblemloesning/Test/filter/modstande.xlsx
+++ b/rapportAfsnit/eProblemloesning/Test/filter/modstande.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="5040" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="4360" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -601,8 +601,18 @@
         <v>38940</v>
       </c>
       <c r="E15" s="1">
-        <f>(B12-B15)/B12*10</f>
-        <v>2.8717948717948721E-2</v>
+        <f>(B12-B15)/B12*100</f>
+        <v>0.28717948717948721</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <f>B12-B15</f>
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <f>C14-C12</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
